--- a/Final Demand/SwFD/SwFD_Avg.xlsx
+++ b/Final Demand/SwFD/SwFD_Avg.xlsx
@@ -7,93 +7,114 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2023" sheetId="3" r:id="rId3"/>
-    <sheet name="2024" sheetId="4" r:id="rId4"/>
-    <sheet name="2025" sheetId="5" r:id="rId5"/>
-    <sheet name="2026" sheetId="6" r:id="rId6"/>
-    <sheet name="2027" sheetId="7" r:id="rId7"/>
-    <sheet name="2028" sheetId="8" r:id="rId8"/>
-    <sheet name="2029" sheetId="9" r:id="rId9"/>
-    <sheet name="2030" sheetId="10" r:id="rId10"/>
-    <sheet name="2031" sheetId="11" r:id="rId11"/>
-    <sheet name="2032" sheetId="12" r:id="rId12"/>
-    <sheet name="2033" sheetId="13" r:id="rId13"/>
-    <sheet name="2034" sheetId="14" r:id="rId14"/>
-    <sheet name="2035" sheetId="15" r:id="rId15"/>
-    <sheet name="2036" sheetId="16" r:id="rId16"/>
-    <sheet name="2037" sheetId="17" r:id="rId17"/>
-    <sheet name="2038" sheetId="18" r:id="rId18"/>
-    <sheet name="2039" sheetId="19" r:id="rId19"/>
-    <sheet name="2040" sheetId="20" r:id="rId20"/>
-    <sheet name="2041" sheetId="21" r:id="rId21"/>
-    <sheet name="2042" sheetId="22" r:id="rId22"/>
-    <sheet name="2043" sheetId="23" r:id="rId23"/>
-    <sheet name="2044" sheetId="24" r:id="rId24"/>
-    <sheet name="2045" sheetId="25" r:id="rId25"/>
-    <sheet name="2046" sheetId="26" r:id="rId26"/>
-    <sheet name="2047" sheetId="27" r:id="rId27"/>
-    <sheet name="2048" sheetId="28" r:id="rId28"/>
-    <sheet name="2049" sheetId="29" r:id="rId29"/>
-    <sheet name="2050" sheetId="30" r:id="rId30"/>
-    <sheet name="2051" sheetId="31" r:id="rId31"/>
-    <sheet name="2052" sheetId="32" r:id="rId32"/>
-    <sheet name="2053" sheetId="33" r:id="rId33"/>
-    <sheet name="2054" sheetId="34" r:id="rId34"/>
-    <sheet name="2055" sheetId="35" r:id="rId35"/>
-    <sheet name="2056" sheetId="36" r:id="rId36"/>
-    <sheet name="2057" sheetId="37" r:id="rId37"/>
-    <sheet name="2058" sheetId="38" r:id="rId38"/>
-    <sheet name="2059" sheetId="39" r:id="rId39"/>
-    <sheet name="2060" sheetId="40" r:id="rId40"/>
-    <sheet name="2061" sheetId="41" r:id="rId41"/>
-    <sheet name="2062" sheetId="42" r:id="rId42"/>
-    <sheet name="2063" sheetId="43" r:id="rId43"/>
-    <sheet name="2064" sheetId="44" r:id="rId44"/>
-    <sheet name="2065" sheetId="45" r:id="rId45"/>
-    <sheet name="2066" sheetId="46" r:id="rId46"/>
-    <sheet name="2067" sheetId="47" r:id="rId47"/>
-    <sheet name="2068" sheetId="48" r:id="rId48"/>
-    <sheet name="2069" sheetId="49" r:id="rId49"/>
-    <sheet name="2070" sheetId="50" r:id="rId50"/>
-    <sheet name="2071" sheetId="51" r:id="rId51"/>
-    <sheet name="2072" sheetId="52" r:id="rId52"/>
-    <sheet name="2073" sheetId="53" r:id="rId53"/>
-    <sheet name="2074" sheetId="54" r:id="rId54"/>
-    <sheet name="2075" sheetId="55" r:id="rId55"/>
-    <sheet name="2076" sheetId="56" r:id="rId56"/>
-    <sheet name="2077" sheetId="57" r:id="rId57"/>
-    <sheet name="2078" sheetId="58" r:id="rId58"/>
-    <sheet name="2079" sheetId="59" r:id="rId59"/>
-    <sheet name="2080" sheetId="60" r:id="rId60"/>
-    <sheet name="2081" sheetId="61" r:id="rId61"/>
-    <sheet name="2082" sheetId="62" r:id="rId62"/>
-    <sheet name="2083" sheetId="63" r:id="rId63"/>
-    <sheet name="2084" sheetId="64" r:id="rId64"/>
-    <sheet name="2085" sheetId="65" r:id="rId65"/>
-    <sheet name="2086" sheetId="66" r:id="rId66"/>
-    <sheet name="2087" sheetId="67" r:id="rId67"/>
-    <sheet name="2088" sheetId="68" r:id="rId68"/>
-    <sheet name="2089" sheetId="69" r:id="rId69"/>
-    <sheet name="2090" sheetId="70" r:id="rId70"/>
-    <sheet name="2091" sheetId="71" r:id="rId71"/>
-    <sheet name="2092" sheetId="72" r:id="rId72"/>
-    <sheet name="2093" sheetId="73" r:id="rId73"/>
-    <sheet name="2094" sheetId="74" r:id="rId74"/>
-    <sheet name="2095" sheetId="75" r:id="rId75"/>
-    <sheet name="2096" sheetId="76" r:id="rId76"/>
-    <sheet name="2097" sheetId="77" r:id="rId77"/>
-    <sheet name="2098" sheetId="78" r:id="rId78"/>
-    <sheet name="2099" sheetId="79" r:id="rId79"/>
-    <sheet name="2100" sheetId="80" r:id="rId80"/>
+    <sheet name="2000" sheetId="1" r:id="rId1"/>
+    <sheet name="2001" sheetId="2" r:id="rId2"/>
+    <sheet name="2002" sheetId="3" r:id="rId3"/>
+    <sheet name="2003" sheetId="4" r:id="rId4"/>
+    <sheet name="2004" sheetId="5" r:id="rId5"/>
+    <sheet name="2005" sheetId="6" r:id="rId6"/>
+    <sheet name="2006" sheetId="7" r:id="rId7"/>
+    <sheet name="2007" sheetId="8" r:id="rId8"/>
+    <sheet name="2008" sheetId="9" r:id="rId9"/>
+    <sheet name="2009" sheetId="10" r:id="rId10"/>
+    <sheet name="2010" sheetId="11" r:id="rId11"/>
+    <sheet name="2011" sheetId="12" r:id="rId12"/>
+    <sheet name="2012" sheetId="13" r:id="rId13"/>
+    <sheet name="2013" sheetId="14" r:id="rId14"/>
+    <sheet name="2014" sheetId="15" r:id="rId15"/>
+    <sheet name="2015" sheetId="16" r:id="rId16"/>
+    <sheet name="2016" sheetId="17" r:id="rId17"/>
+    <sheet name="2017" sheetId="18" r:id="rId18"/>
+    <sheet name="2018" sheetId="19" r:id="rId19"/>
+    <sheet name="2019" sheetId="20" r:id="rId20"/>
+    <sheet name="2020" sheetId="21" r:id="rId21"/>
+    <sheet name="2021" sheetId="22" r:id="rId22"/>
+    <sheet name="2022" sheetId="23" r:id="rId23"/>
+    <sheet name="2023" sheetId="24" r:id="rId24"/>
+    <sheet name="2024" sheetId="25" r:id="rId25"/>
+    <sheet name="2025" sheetId="26" r:id="rId26"/>
+    <sheet name="2026" sheetId="27" r:id="rId27"/>
+    <sheet name="2027" sheetId="28" r:id="rId28"/>
+    <sheet name="2028" sheetId="29" r:id="rId29"/>
+    <sheet name="2029" sheetId="30" r:id="rId30"/>
+    <sheet name="2030" sheetId="31" r:id="rId31"/>
+    <sheet name="2031" sheetId="32" r:id="rId32"/>
+    <sheet name="2032" sheetId="33" r:id="rId33"/>
+    <sheet name="2033" sheetId="34" r:id="rId34"/>
+    <sheet name="2034" sheetId="35" r:id="rId35"/>
+    <sheet name="2035" sheetId="36" r:id="rId36"/>
+    <sheet name="2036" sheetId="37" r:id="rId37"/>
+    <sheet name="2037" sheetId="38" r:id="rId38"/>
+    <sheet name="2038" sheetId="39" r:id="rId39"/>
+    <sheet name="2039" sheetId="40" r:id="rId40"/>
+    <sheet name="2040" sheetId="41" r:id="rId41"/>
+    <sheet name="2041" sheetId="42" r:id="rId42"/>
+    <sheet name="2042" sheetId="43" r:id="rId43"/>
+    <sheet name="2043" sheetId="44" r:id="rId44"/>
+    <sheet name="2044" sheetId="45" r:id="rId45"/>
+    <sheet name="2045" sheetId="46" r:id="rId46"/>
+    <sheet name="2046" sheetId="47" r:id="rId47"/>
+    <sheet name="2047" sheetId="48" r:id="rId48"/>
+    <sheet name="2048" sheetId="49" r:id="rId49"/>
+    <sheet name="2049" sheetId="50" r:id="rId50"/>
+    <sheet name="2050" sheetId="51" r:id="rId51"/>
+    <sheet name="2051" sheetId="52" r:id="rId52"/>
+    <sheet name="2052" sheetId="53" r:id="rId53"/>
+    <sheet name="2053" sheetId="54" r:id="rId54"/>
+    <sheet name="2054" sheetId="55" r:id="rId55"/>
+    <sheet name="2055" sheetId="56" r:id="rId56"/>
+    <sheet name="2056" sheetId="57" r:id="rId57"/>
+    <sheet name="2057" sheetId="58" r:id="rId58"/>
+    <sheet name="2058" sheetId="59" r:id="rId59"/>
+    <sheet name="2059" sheetId="60" r:id="rId60"/>
+    <sheet name="2060" sheetId="61" r:id="rId61"/>
+    <sheet name="2061" sheetId="62" r:id="rId62"/>
+    <sheet name="2062" sheetId="63" r:id="rId63"/>
+    <sheet name="2063" sheetId="64" r:id="rId64"/>
+    <sheet name="2064" sheetId="65" r:id="rId65"/>
+    <sheet name="2065" sheetId="66" r:id="rId66"/>
+    <sheet name="2066" sheetId="67" r:id="rId67"/>
+    <sheet name="2067" sheetId="68" r:id="rId68"/>
+    <sheet name="2068" sheetId="69" r:id="rId69"/>
+    <sheet name="2069" sheetId="70" r:id="rId70"/>
+    <sheet name="2070" sheetId="71" r:id="rId71"/>
+    <sheet name="2071" sheetId="72" r:id="rId72"/>
+    <sheet name="2072" sheetId="73" r:id="rId73"/>
+    <sheet name="2073" sheetId="74" r:id="rId74"/>
+    <sheet name="2074" sheetId="75" r:id="rId75"/>
+    <sheet name="2075" sheetId="76" r:id="rId76"/>
+    <sheet name="2076" sheetId="77" r:id="rId77"/>
+    <sheet name="2077" sheetId="78" r:id="rId78"/>
+    <sheet name="2078" sheetId="79" r:id="rId79"/>
+    <sheet name="2079" sheetId="80" r:id="rId80"/>
+    <sheet name="2080" sheetId="81" r:id="rId81"/>
+    <sheet name="2081" sheetId="82" r:id="rId82"/>
+    <sheet name="2082" sheetId="83" r:id="rId83"/>
+    <sheet name="2083" sheetId="84" r:id="rId84"/>
+    <sheet name="2084" sheetId="85" r:id="rId85"/>
+    <sheet name="2085" sheetId="86" r:id="rId86"/>
+    <sheet name="2086" sheetId="87" r:id="rId87"/>
+    <sheet name="2087" sheetId="88" r:id="rId88"/>
+    <sheet name="2088" sheetId="89" r:id="rId89"/>
+    <sheet name="2089" sheetId="90" r:id="rId90"/>
+    <sheet name="2090" sheetId="91" r:id="rId91"/>
+    <sheet name="2091" sheetId="92" r:id="rId92"/>
+    <sheet name="2092" sheetId="93" r:id="rId93"/>
+    <sheet name="2093" sheetId="94" r:id="rId94"/>
+    <sheet name="2094" sheetId="95" r:id="rId95"/>
+    <sheet name="2095" sheetId="96" r:id="rId96"/>
+    <sheet name="2096" sheetId="97" r:id="rId97"/>
+    <sheet name="2097" sheetId="98" r:id="rId98"/>
+    <sheet name="2098" sheetId="99" r:id="rId99"/>
+    <sheet name="2099" sheetId="100" r:id="rId100"/>
+    <sheet name="2100" sheetId="101" r:id="rId101"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="10">
   <si>
     <t>FD</t>
   </si>
@@ -502,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>531143931.7251449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1253613753.083556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -562,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>280241948.8404149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12335478705.88441</v>
+        <v>0.6279263995345475</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -608,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>13172286383.92364</v>
+        <v>1244514.589836353</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -658,7 +679,199 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3695129871.673028</v>
+        <v>219620.2915054269</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>11793719310.61581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>39114547820.43442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8212980519.164694</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12572466836.96567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38949152629.71503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8270320635.494917</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13337873786.15104</v>
+        <v>8.838312334195191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -704,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>15415663856.63433</v>
+        <v>2757587.560645716</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -754,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4202397245.056828</v>
+        <v>486634.0809721832</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14436433758.22646</v>
+        <v>94.20814068702093</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -800,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>17737650038.02787</v>
+        <v>5739497.686243899</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -850,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4734221731.481062</v>
+        <v>1012863.000437758</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14412551669.26605</v>
+        <v>801.7465720112959</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>20108857395.81518</v>
+        <v>11411029.36881969</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -946,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5150016523.2976</v>
+        <v>2013800.148038274</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14268509587.80794</v>
+        <v>5664.828107931954</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -992,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>22531537790.02364</v>
+        <v>21921551.88785901</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5561543681.852112</v>
+        <v>3869138.582026328</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15098116037.99646</v>
+        <v>34232.42218225858</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>25062664944.03444</v>
+        <v>40920497.20685541</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1138,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6100391674.084117</v>
+        <v>7225067.81543918</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16193501049.35733</v>
+        <v>181061.7397460165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27838857982.6955</v>
+        <v>74151463.29433084</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1234,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6712017538.378125</v>
+        <v>13105670.31714128</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17536103523.1763</v>
+        <v>853710.6961660275</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31098330777.29455</v>
+        <v>129940957.6696823</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1330,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7436396672.424511</v>
+        <v>23025613.97984475</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18536491137.52004</v>
+        <v>3641471.976216509</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1376,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35192997538.02707</v>
+        <v>219563343.7499743</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1426,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8270139103.690012</v>
+        <v>39151080.42382345</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17724588468.97838</v>
+        <v>14217938.21425436</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1472,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40582832373.18082</v>
+        <v>357482067.5509751</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1522,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>9131075019.924932</v>
+        <v>64664841.65698467</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1489651243.893187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1568,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1790920530.230548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1618,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>481561604.3294705</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16326269772.0712</v>
+        <v>51268294.05944137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1664,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>47807538908.13596</v>
+        <v>561431869.924841</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1714,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>10250654487.87504</v>
+        <v>104772689.4573935</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15295913645.72912</v>
+        <v>171562343.7052445</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1760,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>57435222577.94443</v>
+        <v>852282193.4539956</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1810,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>11835173474.39147</v>
+        <v>169465222.6552094</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15086589081.62321</v>
+        <v>531143931.7251449</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1856,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>69992791395.72755</v>
+        <v>1253613753.083556</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1906,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>14027956745.57019</v>
+        <v>280241948.8404149</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16537082908.15117</v>
+        <v>1489651243.893187</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1952,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>85887329048.93378</v>
+        <v>1790920530.230548</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2002,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>16994041135.68485</v>
+        <v>481561604.3294705</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>21143816880.53347</v>
+        <v>3568346090.095617</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2048,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>105329489275.2656</v>
+        <v>2490305200.645855</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2098,7 +2311,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>20936869917.65516</v>
+        <v>835948522.5428991</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>31539089353.83803</v>
+        <v>6519983392.177137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2144,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>128268659664.4684</v>
+        <v>3376547030.849546</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2194,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>26139989084.67905</v>
+        <v>1320303839.868948</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>46936522317.29819</v>
+        <v>8362096170.393341</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2240,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>154346105238.5049</v>
+        <v>4470575005.256382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2290,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>32452717129.63204</v>
+        <v>1718046797.637968</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>63885985659.36501</v>
+        <v>8758454989.526396</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2336,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>182869270043.4668</v>
+        <v>5786663518.55562</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2386,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>39369490505.77</v>
+        <v>1994337580.54216</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>88988643975.65027</v>
+        <v>9244232876.450687</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2432,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>212810367223.5032</v>
+        <v>7329427747.83948</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2482,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>47442397794.90616</v>
+        <v>2320565412.361619</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>122297445624.835</v>
+        <v>10076891126.23028</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2528,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>242835019936.5424</v>
+        <v>9091027736.965525</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2578,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>56441843881.75712</v>
+        <v>2723953581.986823</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3568346090.095617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2624,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2490305200.645855</v>
+        <v>9.793559118396178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2674,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>835948522.5428991</v>
+        <v>1.728275138540502</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>139386090730.0989</v>
+        <v>11206579665.03719</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2720,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>271368927602.7269</v>
+        <v>11049971752.76164</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2770,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>63375977697.2896</v>
+        <v>3195170533.530696</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>140264239374.1494</v>
+        <v>12335478705.88441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2816,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>296708404853.8857</v>
+        <v>13172286383.92364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2866,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>67945222224.93761</v>
+        <v>3695129871.673028</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>138566495055.358</v>
+        <v>13337873786.15104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2912,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>317172304897.239</v>
+        <v>15415663856.63433</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2962,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>71367860445.53293</v>
+        <v>4202397245.056828</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>134574071088.4359</v>
+        <v>14436433758.22646</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3008,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>331280106025.0976</v>
+        <v>17737650038.02787</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3058,7 +3271,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>73413869746.28136</v>
+        <v>4734221731.481062</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>128753720281.0357</v>
+        <v>14412551669.26605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3104,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>337928664412.5066</v>
+        <v>20108857395.81518</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3154,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>73940439110.55742</v>
+        <v>5150016523.2976</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3403,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>124140812077.2056</v>
+        <v>14268509587.80794</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3200,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>336533972734.953</v>
+        <v>22531537790.02364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3250,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>73181771693.83154</v>
+        <v>5561543681.852113</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>118522767755.4013</v>
+        <v>15098116037.99646</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3296,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>327108114586.2014</v>
+        <v>25062664944.03444</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3346,7 +3559,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>70894157814.83177</v>
+        <v>6100391674.084117</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>105012671986.1488</v>
+        <v>16193501049.35733</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3392,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>310255709006.1975</v>
+        <v>27838857982.6955</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3442,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>66419082136.80957</v>
+        <v>6712017538.378125</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3691,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>76548444720.12491</v>
+        <v>17536103523.1763</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3488,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>287094240716.569</v>
+        <v>31098330777.29455</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3538,7 +3751,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>59169072284.89861</v>
+        <v>7436396672.42451</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>37966531613.10423</v>
+        <v>18536491137.52004</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3584,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>259120802457.8169</v>
+        <v>35192997538.02707</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3634,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>49945703946.29955</v>
+        <v>8270139103.690011</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6519983392.177137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3680,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>3376547030.849546</v>
+        <v>411.9991057797087</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3730,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1320303839.868948</v>
+        <v>72.70572454936037</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17700527639.54741</v>
+        <v>17724588468.97838</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>228056228994.9905</v>
+        <v>40582832373.18082</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3826,7 +4039,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>42211942174.75195</v>
+        <v>9131075019.924932</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14871415002.79476</v>
+        <v>16326269772.0712</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3872,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>195692805721.4009</v>
+        <v>47807538908.13596</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3922,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>36186403983.82574</v>
+        <v>10250654487.87504</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12359609407.45177</v>
+        <v>15295913645.72912</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3968,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>163757436012.4984</v>
+        <v>57435222577.94443</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4018,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>30271660995.19043</v>
+        <v>11835173474.39147</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8368378403.642456</v>
+        <v>15086589081.62321</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4064,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>133788716935.0457</v>
+        <v>69992791395.72755</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4114,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>24539593399.39971</v>
+        <v>14027956745.57019</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3941331936.781277</v>
+        <v>16537082908.15117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4160,7 +4373,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>107024106236.6272</v>
+        <v>85887329048.93378</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4210,7 +4423,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>19324532753.68769</v>
+        <v>16994041135.68485</v>
       </c>
     </row>
   </sheetData>
@@ -4246,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2884578578.94477</v>
+        <v>21143816880.53347</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4256,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>84304143960.14188</v>
+        <v>105329489275.2656</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4306,7 +4519,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>15197710606.31302</v>
+        <v>20936869917.65516</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5237515056.435368</v>
+        <v>31539089353.83803</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4352,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>66014984039.15454</v>
+        <v>128268659664.4684</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4402,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>12231649183.11486</v>
+        <v>26139989084.67905</v>
       </c>
     </row>
   </sheetData>
@@ -4438,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8871415973.684736</v>
+        <v>46936522317.29819</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4448,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>52094026175.61272</v>
+        <v>154346105238.5049</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4498,7 +4711,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>10178776328.72016</v>
+        <v>32452717129.63205</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13237270508.30145</v>
+        <v>63885985659.36501</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4544,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>42108719603.96636</v>
+        <v>182869270043.4668</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4594,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8901758352.602724</v>
+        <v>39369490505.77</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17463400349.10797</v>
+        <v>88988643975.65027</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4640,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35391811533.66798</v>
+        <v>212810367223.5032</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4690,7 +4903,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8185991616.626609</v>
+        <v>47442397794.90616</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8362096170.393341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4736,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4470575005.256382</v>
+        <v>3643.723617575529</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4786,7 +4999,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1718046797.637968</v>
+        <v>643.0100501603877</v>
       </c>
     </row>
   </sheetData>
@@ -4822,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>21113408104.28547</v>
+        <v>122297445624.835</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4832,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31193708853.64142</v>
+        <v>242835019936.5424</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4882,7 +5095,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7850706384.452101</v>
+        <v>56441843881.75712</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>23702574347.6954</v>
+        <v>139386090730.0989</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4928,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>28808816876.15648</v>
+        <v>271368927602.7269</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4978,7 +5191,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7717528232.464357</v>
+        <v>63375977697.2896</v>
       </c>
     </row>
   </sheetData>
@@ -5014,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>21767484226.25871</v>
+        <v>140264239374.1494</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5024,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27649853137.70214</v>
+        <v>296708404853.8857</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5074,7 +5287,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7297995206.30298</v>
+        <v>67945222224.93761</v>
       </c>
     </row>
   </sheetData>
@@ -5110,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13220696013.9692</v>
+        <v>138566495055.358</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5120,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27270247975.58595</v>
+        <v>317172304897.239</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5170,7 +5383,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6281362925.348347</v>
+        <v>71367860445.53293</v>
       </c>
     </row>
   </sheetData>
@@ -5206,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4290807895.768172</v>
+        <v>134574071088.4359</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5216,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27353186512.42619</v>
+        <v>331280106025.0976</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5266,7 +5479,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5303789346.820694</v>
+        <v>73413869746.28136</v>
       </c>
     </row>
   </sheetData>
@@ -5302,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>580740268.7534856</v>
+        <v>128753720281.0357</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5312,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27688160265.66782</v>
+        <v>337928664412.5066</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5362,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4950672625.763663</v>
+        <v>73940439110.55742</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>119656335.9475491</v>
+        <v>124140812077.2056</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5408,7 +5621,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>28146681439.68128</v>
+        <v>336533972734.953</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5458,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4980356578.970609</v>
+        <v>73181771693.83154</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>286829926.2176715</v>
+        <v>118522767755.4013</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5504,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>28659160374.43165</v>
+        <v>327108114586.2014</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5554,7 +5767,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5089368881.407551</v>
+        <v>70894157814.83176</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>766148131.6302843</v>
+        <v>105012671986.1488</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5600,7 +5813,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>29191892892.16779</v>
+        <v>310255709006.1975</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5650,7 +5863,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5236638080.563695</v>
+        <v>66419082136.80957</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1668781071.372696</v>
+        <v>76548444720.12491</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5696,7 +5909,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>29725517177.09426</v>
+        <v>287094240716.569</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5746,7 +5959,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5431099620.881575</v>
+        <v>59169072284.89862</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5995,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8758454989.526396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5792,7 +6005,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5786663518.55562</v>
+        <v>17566.73888646673</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5842,7 +6055,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1994337580.54216</v>
+        <v>3100.012744670599</v>
       </c>
     </row>
   </sheetData>
@@ -5878,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2436177765.082755</v>
+        <v>37966531613.10423</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5888,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30239072065.28251</v>
+        <v>259120802457.8169</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5938,7 +6151,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5606993253.392385</v>
+        <v>49945703946.29954</v>
       </c>
     </row>
   </sheetData>
@@ -5974,7 +6187,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2081189906.578849</v>
+        <v>17700527639.54741</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5984,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30703591380.67214</v>
+        <v>228056228994.9905</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6034,7 +6247,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5649524154.836525</v>
+        <v>42211942174.75196</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6283,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2861049280.170842</v>
+        <v>14871415002.79476</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6080,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31086245264.04023</v>
+        <v>195692805721.4009</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6130,7 +6343,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5803702352.235233</v>
+        <v>36186403983.82574</v>
       </c>
     </row>
   </sheetData>
@@ -6166,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6547718045.041755</v>
+        <v>12359609407.45177</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6176,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31362308341.85989</v>
+        <v>163757436012.4984</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6226,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6262049228.731548</v>
+        <v>30271660995.19043</v>
       </c>
     </row>
   </sheetData>
@@ -6262,7 +6475,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11583824878.22426</v>
+        <v>8368378403.642456</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6272,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31529320495.11306</v>
+        <v>133788716935.0457</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6322,7 +6535,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6851089387.567745</v>
+        <v>24539593399.39971</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6571,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14051957718.69034</v>
+        <v>3941331936.781277</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6368,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31616699636.68347</v>
+        <v>107024106236.6272</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6418,7 +6631,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7140746218.354181</v>
+        <v>19324532753.68769</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14177736051.97381</v>
+        <v>2884578578.94477</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6464,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31685339255.70229</v>
+        <v>84304143960.14188</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6514,7 +6727,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7166834462.663509</v>
+        <v>15197710606.31302</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14865084976.35833</v>
+        <v>5237515056.435368</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6560,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31815384431.95378</v>
+        <v>66014984039.15454</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6610,7 +6823,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7266155714.12316</v>
+        <v>12231649183.11486</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16455777478.4634</v>
+        <v>8871415973.684736</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6656,7 +6869,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>32085324249.10766</v>
+        <v>52094026175.61272</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6706,7 +6919,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7490535763.789443</v>
+        <v>10178776328.72016</v>
       </c>
     </row>
   </sheetData>
@@ -6742,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17881779883.78816</v>
+        <v>13237270508.30145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6752,7 +6965,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>32549575290.00278</v>
+        <v>42108719603.96636</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6802,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7730907129.767803</v>
+        <v>8901758352.602724</v>
       </c>
     </row>
   </sheetData>
@@ -6838,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9244232876.450687</v>
+        <v>1.654242495879432E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6848,7 +7061,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7329427747.83948</v>
+        <v>63189.2101310078</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6898,7 +7111,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2320565412.361619</v>
+        <v>11151.0370837806</v>
       </c>
     </row>
   </sheetData>
@@ -6934,7 +7147,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18678795238.25624</v>
+        <v>17463400349.10797</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6944,7 +7157,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>33222692344.56876</v>
+        <v>35391811533.66798</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6994,7 +7207,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7938249753.945833</v>
+        <v>8185991616.626609</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18850863694.02454</v>
+        <v>21113408104.28547</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7040,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>34075522218.74375</v>
+        <v>31193708853.64142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7090,7 +7303,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8107867860.813717</v>
+        <v>7850706384.452102</v>
       </c>
     </row>
   </sheetData>
@@ -7126,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18162091746.27467</v>
+        <v>23702574347.6954</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7136,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35043519249.70207</v>
+        <v>28808816876.15648</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7186,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8202160649.860297</v>
+        <v>7717528232.464358</v>
       </c>
     </row>
   </sheetData>
@@ -7222,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16398503223.54269</v>
+        <v>21767484226.25871</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7232,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>36042867293.47987</v>
+        <v>27649853137.70214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7282,7 +7495,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8182561906.694001</v>
+        <v>7297995206.30298</v>
       </c>
     </row>
   </sheetData>
@@ -7318,7 +7531,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13424254796.82702</v>
+        <v>13220696013.9692</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7328,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>36988187643.82905</v>
+        <v>27270247975.58595</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7378,7 +7591,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8018911097.578065</v>
+        <v>6281362925.348347</v>
       </c>
     </row>
   </sheetData>
@@ -7414,7 +7627,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9842551167.48505</v>
+        <v>4290807895.768172</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7424,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>37806739171.42342</v>
+        <v>27353186512.42619</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7474,7 +7687,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7765394297.226656</v>
+        <v>5303789346.820695</v>
       </c>
     </row>
   </sheetData>
@@ -7510,7 +7723,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7315106803.360388</v>
+        <v>580740268.7534856</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7520,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38446704554.80354</v>
+        <v>27688160265.66782</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7570,7 +7783,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7597502213.312563</v>
+        <v>4950672625.763663</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7583626981.616621</v>
+        <v>119656335.9475491</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7616,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38879671155.25654</v>
+        <v>28146681439.68128</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7666,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7703743659.342544</v>
+        <v>4980356578.970609</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7915,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9903015100.631975</v>
+        <v>286829926.2176715</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7712,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39098812045.39146</v>
+        <v>28659160374.43165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7762,7 +7975,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8000125372.132765</v>
+        <v>5089368881.40755</v>
       </c>
     </row>
   </sheetData>
@@ -7798,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11793719310.61581</v>
+        <v>766148131.6302843</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7808,7 +8021,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39114547820.43442</v>
+        <v>29191892892.16779</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7858,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8212980519.164694</v>
+        <v>5236638080.563695</v>
       </c>
     </row>
   </sheetData>
@@ -7894,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10076891126.23028</v>
+        <v>0.0009882627203614332</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7904,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>9091027736.965525</v>
+        <v>192190.7285485716</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7954,7 +8167,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2723953581.986823</v>
+        <v>33916.01103014313</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12572466836.96567</v>
+        <v>1668781071.372696</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8000,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38949152629.71503</v>
+        <v>29725517177.09426</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8050,7 +8263,871 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8270320635.494917</v>
+        <v>5431099620.881576</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2436177765.082755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30239072065.28251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5606993253.392385</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2081189906.578849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30703591380.67214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5649524154.836525</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2861049280.170842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31086245264.04023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5803702352.235234</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>6547718045.041755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31362308341.85989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6262049228.731549</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>11583824878.22426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31529320495.11306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6851089387.567746</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14051957718.69034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31616699636.68347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7140746218.354181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14177736051.97381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31685339255.70229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7166834462.663509</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14865084976.35832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>31815384431.95378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7266155714.12316</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16455777478.4634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>32085324249.10766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7490535763.789443</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11206579665.03719</v>
+        <v>0.0313685536052886</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8096,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>11049971752.76164</v>
+        <v>515759.8058044382</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8146,7 +9223,967 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3195170533.530696</v>
+        <v>91016.43980382514</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>17881779883.78816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>32549575290.00278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7730907129.767803</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18678795238.25624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>33222692344.56876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7938249753.945833</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18850863694.02454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>34075522218.74375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8107867860.813716</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18162091746.27467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>35043519249.70207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8202160649.860297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16398503223.54269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>36042867293.47987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8182561906.694001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13424254796.82702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>36988187643.82905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8018911097.578065</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9842551167.48505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>37806739171.42342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7765394297.226656</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7315106803.360388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38446704554.80354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7597502213.312564</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7583626981.616621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38879671155.25654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7703743659.342544</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9903015100.631975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>39098812045.39146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8000125372.132765</v>
       </c>
     </row>
   </sheetData>

--- a/Final Demand/SwFD/SwFD_Avg.xlsx
+++ b/Final Demand/SwFD/SwFD_Avg.xlsx
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6279263995345475</v>
+        <v>6.279263995345479E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1244514.589836353</v>
+        <v>1.244514589836353</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>219620.2915054269</v>
+        <v>0.2196202915054269</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11793719310.61581</v>
+        <v>11793.7193106158</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39114547820.43442</v>
+        <v>39114.5478204344</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8212980519.164694</v>
+        <v>8212.980519164688</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12572466836.96567</v>
+        <v>12572.46683696566</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38949152629.71503</v>
+        <v>38949.15262971499</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8270320635.494917</v>
+        <v>8270.320635494909</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.838312334195191</v>
+        <v>8.838312334195197E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2757587.560645716</v>
+        <v>2.757587560645717</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>486634.0809721832</v>
+        <v>0.4866340809721833</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>94.20814068702093</v>
+        <v>9.4208140687021E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5739497.686243899</v>
+        <v>5.739497686243899</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1012863.000437758</v>
+        <v>1.012863000437758</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>801.7465720112959</v>
+        <v>0.0008017465720112962</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11411029.36881969</v>
+        <v>11.41102936881969</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2013800.148038274</v>
+        <v>2.013800148038274</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5664.828107931954</v>
+        <v>0.005664828107931957</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21921551.88785901</v>
+        <v>21.92155188785901</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3869138.582026328</v>
+        <v>3.869138582026328</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>34232.42218225858</v>
+        <v>0.03423242218225859</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40920497.20685541</v>
+        <v>40.92049720685541</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7225067.81543918</v>
+        <v>7.225067815439181</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>181061.7397460165</v>
+        <v>0.1810617397460165</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74151463.29433084</v>
+        <v>74.15146329433084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13105670.31714128</v>
+        <v>13.10567031714127</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>853710.6961660275</v>
+        <v>0.8537106961660277</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>129940957.6696823</v>
+        <v>129.9409576696824</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23025613.97984475</v>
+        <v>23.02561397984475</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3641471.976216509</v>
+        <v>3.64147197621651</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>219563343.7499743</v>
+        <v>219.5633437499743</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39151080.42382345</v>
+        <v>39.15108042382344</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14217938.21425436</v>
+        <v>14.21793821425436</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>357482067.5509751</v>
+        <v>357.4820675509752</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64664841.65698467</v>
+        <v>64.66484165698468</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>51268294.05944137</v>
+        <v>51.26829405944137</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>561431869.924841</v>
+        <v>561.4318699248411</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>104772689.4573935</v>
+        <v>104.7726894573936</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>171562343.7052445</v>
+        <v>171.5623437052445</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>852282193.4539956</v>
+        <v>852.2821934539958</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>169465222.6552094</v>
+        <v>169.4652226552095</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>531143931.7251449</v>
+        <v>531.143931725145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1253613753.083556</v>
+        <v>1253.613753083557</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>280241948.8404149</v>
+        <v>280.241948840415</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1489651243.893187</v>
+        <v>1489.651243893187</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1790920530.230548</v>
+        <v>1790.920530230548</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>481561604.3294705</v>
+        <v>481.5616043294705</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3568346090.095617</v>
+        <v>3568.346090095617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2490305200.645855</v>
+        <v>2490.305200645855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>835948522.5428991</v>
+        <v>835.9485225428991</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6519983392.177137</v>
+        <v>6519.983392177136</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3376547030.849546</v>
+        <v>3376.547030849546</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1320303839.868948</v>
+        <v>1320.303839868948</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8362096170.393341</v>
+        <v>8362.096170393337</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4470575005.256382</v>
+        <v>4470.575005256382</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1718046797.637968</v>
+        <v>1718.046797637968</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8758454989.526396</v>
+        <v>8758.454989526395</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5786663518.55562</v>
+        <v>5786.663518555622</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1994337580.54216</v>
+        <v>1994.33758054216</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9244232876.450687</v>
+        <v>9244.232876450687</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7329427747.83948</v>
+        <v>7329.427747839482</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2320565412.361619</v>
+        <v>2320.565412361619</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10076891126.23028</v>
+        <v>10076.89112623028</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9091027736.965525</v>
+        <v>9091.027736965525</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2723953581.986823</v>
+        <v>2723.953581986823</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.793559118396178</v>
+        <v>9.793559118396173E-06</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.728275138540502</v>
+        <v>1.728275138540502E-06</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11206579665.03719</v>
+        <v>11206.57966503719</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11049971752.76164</v>
+        <v>11049.97175276164</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3195170533.530696</v>
+        <v>3195.170533530697</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12335478705.88441</v>
+        <v>12335.47870588442</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13172286383.92364</v>
+        <v>13172.28638392364</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3695129871.673028</v>
+        <v>3695.129871673028</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13337873786.15104</v>
+        <v>13337.87378615105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15415663856.63433</v>
+        <v>15415.66385663433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4202397245.056828</v>
+        <v>4202.397245056828</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14436433758.22646</v>
+        <v>14436.43375822646</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17737650038.02787</v>
+        <v>17737.65003802787</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4734221731.481062</v>
+        <v>4734.221731481062</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14412551669.26605</v>
+        <v>14412.55166926606</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20108857395.81518</v>
+        <v>20108.85739581519</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5150016523.2976</v>
+        <v>5150.016523297602</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14268509587.80794</v>
+        <v>14268.50958780795</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22531537790.02364</v>
+        <v>22531.53779002364</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5561543681.852113</v>
+        <v>5561.543681852114</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15098116037.99646</v>
+        <v>15098.11603799646</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25062664944.03444</v>
+        <v>25062.66494403445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6100391674.084117</v>
+        <v>6100.391674084119</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16193501049.35733</v>
+        <v>16193.50104935733</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27838857982.6955</v>
+        <v>27838.8579826955</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6712017538.378125</v>
+        <v>6712.017538378125</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17536103523.1763</v>
+        <v>17536.10352317631</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31098330777.29455</v>
+        <v>31098.33077729456</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7436396672.42451</v>
+        <v>7436.396672424512</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18536491137.52004</v>
+        <v>18536.49113752005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35192997538.02707</v>
+        <v>35192.99753802709</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8270139103.690011</v>
+        <v>8270.139103690015</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>411.9991057797087</v>
+        <v>0.0004119991057797085</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72.70572454936037</v>
+        <v>7.270572454936034E-05</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17724588468.97838</v>
+        <v>17724.58846897837</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40582832373.18082</v>
+        <v>40582.83237318083</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9131075019.924932</v>
+        <v>9131.075019924932</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16326269772.0712</v>
+        <v>16326.26977207119</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47807538908.13596</v>
+        <v>47807.53890813598</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10250654487.87504</v>
+        <v>10250.65448787504</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15295913645.72912</v>
+        <v>15295.91364572912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>57435222577.94443</v>
+        <v>57435.22257794445</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11835173474.39147</v>
+        <v>11835.17347439147</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15086589081.62321</v>
+        <v>15086.5890816232</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>69992791395.72755</v>
+        <v>69992.79139572759</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14027956745.57019</v>
+        <v>14027.95674557019</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16537082908.15117</v>
+        <v>16537.08290815116</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85887329048.93378</v>
+        <v>85887.32904893374</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16994041135.68485</v>
+        <v>16994.04113568484</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21143816880.53347</v>
+        <v>21143.81688053345</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>105329489275.2656</v>
+        <v>105329.4892752656</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20936869917.65516</v>
+        <v>20936.86991765516</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31539089353.83803</v>
+        <v>31539.08935383803</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>128268659664.4684</v>
+        <v>128268.6596644684</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26139989084.67905</v>
+        <v>26139.98908467904</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46936522317.29819</v>
+        <v>46936.52231729819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154346105238.5049</v>
+        <v>154346.105238505</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32452717129.63205</v>
+        <v>32452.71712963206</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>63885985659.36501</v>
+        <v>63885.985659365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>182869270043.4668</v>
+        <v>182869.2700434668</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39369490505.77</v>
+        <v>39369.49050577</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>88988643975.65027</v>
+        <v>88988.64397565022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>212810367223.5032</v>
+        <v>212810.3672235032</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>47442397794.90616</v>
+        <v>47442.39779490615</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3643.723617575529</v>
+        <v>0.003643723617575529</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>643.0100501603877</v>
+        <v>0.0006430100501603875</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>122297445624.835</v>
+        <v>122297.445624835</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>242835019936.5424</v>
+        <v>242835.0199365425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>56441843881.75712</v>
+        <v>56441.84388175714</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139386090730.0989</v>
+        <v>139386.0907300989</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>271368927602.7269</v>
+        <v>271368.9276027269</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63375977697.2896</v>
+        <v>63375.97769728961</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140264239374.1494</v>
+        <v>140264.2393741494</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>296708404853.8857</v>
+        <v>296708.4048538858</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>67945222224.93761</v>
+        <v>67945.22222493764</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138566495055.358</v>
+        <v>138566.495055358</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>317172304897.239</v>
+        <v>317172.304897239</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71367860445.53293</v>
+        <v>71367.86044553295</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>134574071088.4359</v>
+        <v>134574.071088436</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>331280106025.0976</v>
+        <v>331280.1060250977</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73413869746.28136</v>
+        <v>73413.86974628137</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>128753720281.0357</v>
+        <v>128753.7202810358</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>337928664412.5066</v>
+        <v>337928.6644125066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73940439110.55742</v>
+        <v>73940.43911055743</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>124140812077.2056</v>
+        <v>124140.8120772056</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>336533972734.953</v>
+        <v>336533.9727349532</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73181771693.83154</v>
+        <v>73181.77169383157</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118522767755.4013</v>
+        <v>118522.7677554012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>327108114586.2014</v>
+        <v>327108.1145862014</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70894157814.83176</v>
+        <v>70894.15781483176</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>105012671986.1488</v>
+        <v>105012.6719861488</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>310255709006.1975</v>
+        <v>310255.7090061978</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66419082136.80957</v>
+        <v>66419.08213680962</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76548444720.12491</v>
+        <v>76548.44472012485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>287094240716.569</v>
+        <v>287094.2407165692</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>59169072284.89862</v>
+        <v>59169.07228489863</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17566.73888646673</v>
+        <v>0.01756673888646672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3100.012744670599</v>
+        <v>0.003100012744670599</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37966531613.10423</v>
+        <v>37966.53161310421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>259120802457.8169</v>
+        <v>259120.802457817</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>49945703946.29954</v>
+        <v>49945.70394629955</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17700527639.54741</v>
+        <v>17700.52763954745</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>228056228994.9905</v>
+        <v>228056.2289949906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42211942174.75196</v>
+        <v>42211.94217475197</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14871415002.79476</v>
+        <v>14871.41500279481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>195692805721.4009</v>
+        <v>195692.8057214009</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36186403983.82574</v>
+        <v>36186.40398382574</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12359609407.45177</v>
+        <v>12359.60940745174</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>163757436012.4984</v>
+        <v>163757.4360124984</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30271660995.19043</v>
+        <v>30271.66099519044</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8368378403.642456</v>
+        <v>8368.378403642344</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>133788716935.0457</v>
+        <v>133788.7169350457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24539593399.39971</v>
+        <v>24539.59339939971</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3941331936.781277</v>
+        <v>3941.331936781172</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>107024106236.6272</v>
+        <v>107024.1062366272</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19324532753.68769</v>
+        <v>19324.53275368767</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2884578578.94477</v>
+        <v>2884.578578944685</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>84304143960.14188</v>
+        <v>84304.14396014187</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15197710606.31302</v>
+        <v>15197.71060631301</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5237515056.435368</v>
+        <v>5237.515056435292</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66014984039.15454</v>
+        <v>66014.98403915451</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12231649183.11486</v>
+        <v>12231.64918311485</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8871415973.684736</v>
+        <v>8871.415973684752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>52094026175.61272</v>
+        <v>52094.02617561269</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10178776328.72016</v>
+        <v>10178.77632872016</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13237270508.30145</v>
+        <v>13237.27050830152</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42108719603.96636</v>
+        <v>42108.71960396634</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8901758352.602724</v>
+        <v>8901.758352602727</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.654242495879432E-05</v>
+        <v>1.654242495879434E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>63189.2101310078</v>
+        <v>0.06318921013100781</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11151.0370837806</v>
+        <v>0.0111510370837806</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17463400349.10797</v>
+        <v>17463.40034910797</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35391811533.66798</v>
+        <v>35391.81153366798</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8185991616.626609</v>
+        <v>8185.991616626608</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21113408104.28547</v>
+        <v>21113.40810428546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31193708853.64142</v>
+        <v>31193.70885364141</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7850706384.452102</v>
+        <v>7850.706384452097</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23702574347.6954</v>
+        <v>23702.57434769543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28808816876.15648</v>
+        <v>28808.81687615648</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7717528232.464358</v>
+        <v>7717.528232464363</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21767484226.25871</v>
+        <v>21767.48422625879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27649853137.70214</v>
+        <v>27649.85313770216</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7297995206.30298</v>
+        <v>7297.995206302991</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13220696013.9692</v>
+        <v>13220.69601396925</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27270247975.58595</v>
+        <v>27270.24797558597</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6281362925.348347</v>
+        <v>6281.362925348356</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4290807895.768172</v>
+        <v>4290.807895768192</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27353186512.42619</v>
+        <v>27353.1865124262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5303789346.820695</v>
+        <v>5303.789346820698</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>580740268.7534856</v>
+        <v>580.7402687534917</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27688160265.66782</v>
+        <v>27688.16026566783</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4950672625.763663</v>
+        <v>4950.672625763666</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119656335.9475491</v>
+        <v>119.6563359475483</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28146681439.68128</v>
+        <v>28146.68143968129</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4980356578.970609</v>
+        <v>4980.35657897061</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>286829926.2176715</v>
+        <v>286.8299262176678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28659160374.43165</v>
+        <v>28659.16037443166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5089368881.40755</v>
+        <v>5089.368881407551</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>766148131.6302843</v>
+        <v>766.1481316302747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29191892892.16779</v>
+        <v>29191.89289216777</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5236638080.563695</v>
+        <v>5236.638080563689</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0009882627203614332</v>
+        <v>9.882627203614339E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>192190.7285485716</v>
+        <v>0.1921907285485715</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>33916.01103014313</v>
+        <v>0.03391601103014313</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1668781071.372696</v>
+        <v>1668.781071372675</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29725517177.09426</v>
+        <v>29725.51717709425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5431099620.881576</v>
+        <v>5431.099620881571</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2436177765.082755</v>
+        <v>2436.177765082728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30239072065.28251</v>
+        <v>30239.07206528247</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5606993253.392385</v>
+        <v>5606.993253392375</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2081189906.578849</v>
+        <v>2081.189906578838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30703591380.67214</v>
+        <v>30703.59138067212</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5649524154.836525</v>
+        <v>5649.52415483652</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2861049280.170842</v>
+        <v>2861.049280170849</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31086245264.04023</v>
+        <v>31086.24526404024</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5803702352.235234</v>
+        <v>5803.702352235236</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6547718045.041755</v>
+        <v>6547.718045041765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31362308341.85989</v>
+        <v>31362.30834185989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6262049228.731549</v>
+        <v>6262.049228731551</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11583824878.22426</v>
+        <v>11583.82487822425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31529320495.11306</v>
+        <v>31529.32049511309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6851089387.567746</v>
+        <v>6851.08938756775</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14051957718.69034</v>
+        <v>14051.95771869026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31616699636.68347</v>
+        <v>31616.69963668347</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7140746218.354181</v>
+        <v>7140.746218354172</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14177736051.97381</v>
+        <v>14177.73605197374</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31685339255.70229</v>
+        <v>31685.3392557023</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7166834462.663509</v>
+        <v>7166.834462663502</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14865084976.35832</v>
+        <v>14865.08497635838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31815384431.95378</v>
+        <v>31815.3844319538</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7266155714.12316</v>
+        <v>7266.155714123171</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16455777478.4634</v>
+        <v>16455.77747846353</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32085324249.10766</v>
+        <v>32085.32424910771</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7490535763.789443</v>
+        <v>7490.535763789466</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0313685536052886</v>
+        <v>3.136855360528863E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>515759.8058044382</v>
+        <v>0.5157598058044383</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>91016.43980382514</v>
+        <v>0.09101643980382514</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17881779883.78816</v>
+        <v>17881.77988378819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32549575290.00278</v>
+        <v>32549.57529000282</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7730907129.767803</v>
+        <v>7730.907129767813</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18678795238.25624</v>
+        <v>18678.79523825625</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33222692344.56876</v>
+        <v>33222.69234456879</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7938249753.945833</v>
+        <v>7938.249753945842</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18850863694.02454</v>
+        <v>18850.86369402457</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34075522218.74375</v>
+        <v>34075.52221874381</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8107867860.813716</v>
+        <v>8107.86786081373</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18162091746.27467</v>
+        <v>18162.0917462747</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35043519249.70207</v>
+        <v>35043.51924970211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8202160649.860297</v>
+        <v>8202.160649860309</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16398503223.54269</v>
+        <v>16398.50322354268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36042867293.47987</v>
+        <v>36042.86729347993</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8182561906.694001</v>
+        <v>8182.561906694011</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13424254796.82702</v>
+        <v>13424.254796827</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36988187643.82905</v>
+        <v>36988.1876438291</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8018911097.578065</v>
+        <v>8018.91109757807</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9842551167.48505</v>
+        <v>9842.551167484971</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37806739171.42342</v>
+        <v>37806.73917142344</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7765394297.226656</v>
+        <v>7765.39429722665</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7315106803.360388</v>
+        <v>7315.106803360361</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38446704554.80354</v>
+        <v>38446.70455480358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7597502213.312564</v>
+        <v>7597.502213312569</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7583626981.616621</v>
+        <v>7583.626981616701</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38879671155.25654</v>
+        <v>38879.67115525655</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7703743659.342544</v>
+        <v>7703.743659342555</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9903015100.631975</v>
+        <v>9903.015100632034</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39098812045.39146</v>
+        <v>39098.81204539147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8000125372.132765</v>
+        <v>8000.125372132775</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/Final Demand/SwFD/SwFD_Avg.xlsx
+++ b/Final Demand/SwFD/SwFD_Avg.xlsx
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.244514589836353</v>
+        <v>1.244515031088292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2196202915054269</v>
+        <v>0.2196203693734162</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11793.7193106158</v>
+        <v>153764.1054578347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39114.5478204344</v>
+        <v>306315.3270643246</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8212.980519164688</v>
+        <v>71140.54655895395</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12572.46683696566</v>
+        <v>148340.3588384367</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38949.15262971499</v>
+        <v>314825.6658936404</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8270.320635494909</v>
+        <v>72039.73254497853</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.757587560645717</v>
+        <v>2.757589645490551</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4866340809721833</v>
+        <v>0.4866344488859776</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.739497686243899</v>
+        <v>5.739505996371094</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.012863000437758</v>
+        <v>1.012864466930793</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.41102936881969</v>
+        <v>11.41105839381044</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.013800148038274</v>
+        <v>2.013805270095464</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.92155188785901</v>
+        <v>21.92164299128898</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.869138582026328</v>
+        <v>3.869154659102205</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40.92049720685541</v>
+        <v>40.92075884473996</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.225067815439181</v>
+        <v>7.225113986830573</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74.15146329433084</v>
+        <v>74.15216032663805</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.10567031714127</v>
+        <v>13.10579332284255</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>129.9409576696824</v>
+        <v>129.9426995896966</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.02561397984475</v>
+        <v>23.02592137749432</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>219.5633437499743</v>
+        <v>219.5674650403087</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.15108042382344</v>
+        <v>39.15180771035305</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>357.4820675509752</v>
+        <v>357.4913696843667</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64.66484165698468</v>
+        <v>64.66648320993612</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>561.4318699248411</v>
+        <v>561.4520236547402</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>104.7726894573936</v>
+        <v>104.776245997964</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>852.2821934539958</v>
+        <v>852.3243084975874</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>169.4652226552095</v>
+        <v>169.4726547217256</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>531.143931725145</v>
+        <v>531.1439317251454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1253.613753083557</v>
+        <v>1253.698942615976</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>280.241948840415</v>
+        <v>280.2569822873126</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1489.651243893187</v>
+        <v>1489.651243893192</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1790.920530230548</v>
+        <v>1791.087766979013</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>481.5616043294705</v>
+        <v>481.5911166968471</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3568.346090095617</v>
+        <v>3568.346090095654</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2490.305200645855</v>
+        <v>2490.624419377794</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>835.9485225428991</v>
+        <v>836.0048552603042</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6519.983392177136</v>
+        <v>6519.983392177449</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3376.547030849546</v>
+        <v>3377.140317053805</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1320.303839868948</v>
+        <v>1320.40853743444</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8362.096170393337</v>
+        <v>8362.096170395709</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4470.575005256382</v>
+        <v>4471.649853601762</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1718.046797637968</v>
+        <v>1718.236476758004</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8758.454989526395</v>
+        <v>8758.454989542868</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5786.663518555622</v>
+        <v>5788.563564835681</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1994.33758054216</v>
+        <v>1994.672882828707</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9244.232876450687</v>
+        <v>9244.232876556378</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7329.427747839482</v>
+        <v>7332.70806745855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2320.565412361619</v>
+        <v>2321.144292306139</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10076.89112623028</v>
+        <v>10076.89112686025</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9091.027736965525</v>
+        <v>9096.563716341832</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2723.953581986823</v>
+        <v>2724.930519593815</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11206.57966503719</v>
+        <v>11206.57966854497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11049.97175276164</v>
+        <v>11059.11257840298</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3195.170533530697</v>
+        <v>3196.783620798334</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12335.47870588442</v>
+        <v>12335.47872421885</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13172.28638392364</v>
+        <v>13187.06618908964</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3695.129871673028</v>
+        <v>3697.738074621835</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13337.87378615105</v>
+        <v>13337.87387648073</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15415.66385663433</v>
+        <v>15439.0852659564</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4202.397245056828</v>
+        <v>4206.530444973826</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14436.43375822646</v>
+        <v>14436.43417917464</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17737.65003802787</v>
+        <v>17774.05591386181</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4734.221731481062</v>
+        <v>4740.646344576718</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14412.55166926606</v>
+        <v>14412.5535298381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20108.85739581519</v>
+        <v>20164.40658942367</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5150.016523297602</v>
+        <v>5159.819528899913</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14268.50958780795</v>
+        <v>14268.51740260479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22531.53779002364</v>
+        <v>22614.79915039135</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5561.543681852114</v>
+        <v>5576.237731404236</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15098.11603799646</v>
+        <v>15098.14726382098</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25062.66494403445</v>
+        <v>25185.34024441148</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6100.391674084119</v>
+        <v>6122.043726039651</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16193.50104935733</v>
+        <v>16193.61978015332</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27838.8579826955</v>
+        <v>28016.63837248256</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6712.017538378125</v>
+        <v>6743.403740651213</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17536.10352317631</v>
+        <v>17536.5329561924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31098.33077729456</v>
+        <v>31351.88263066413</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7436.396672424512</v>
+        <v>7481.188831916355</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18536.49113752005</v>
+        <v>18537.96714859268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35192.99753802709</v>
+        <v>35549.0622695515</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8270.139103690015</v>
+        <v>8333.138057542263</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17724.58846897837</v>
+        <v>17729.40237676258</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40582.83237318083</v>
+        <v>41075.41155160805</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9131.075019924932</v>
+        <v>9218.535635937133</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16326.26977207119</v>
+        <v>16341.13621937344</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>47807.53890813598</v>
+        <v>48479.12210846642</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10250.65448787504</v>
+        <v>10370.82099776433</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15295.91364572912</v>
+        <v>15339.25632401526</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>57435.22257794445</v>
+        <v>58338.00290778849</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11835.17347439147</v>
+        <v>11999.30350338921</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15086.5890816232</v>
+        <v>15205.35417285684</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>69992.79139572759</v>
+        <v>71189.80528924117</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14027.95674557019</v>
+        <v>14252.39061273254</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16537.08290815116</v>
+        <v>16840.86768661898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85887.32904893374</v>
+        <v>87453.45607906718</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16994.04113568484</v>
+        <v>17304.17035821789</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21143.81688053345</v>
+        <v>21861.61082790679</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>105329.4892752656</v>
+        <v>107352.2579489066</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20936.86991765516</v>
+        <v>21373.583978398</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31539.08935383803</v>
+        <v>33081.47650842235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>128268.6596644684</v>
+        <v>130848.8297063447</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26139.98908467904</v>
+        <v>26766.68956022541</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46936.52231729819</v>
+        <v>49885.5991809671</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>154346.105238505</v>
+        <v>157598.0381127365</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32452.71712963206</v>
+        <v>33354.2628439237</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>63885.985659365</v>
+        <v>68775.11421579373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>182869.2700434668</v>
+        <v>186921.1582278713</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39369.49050577</v>
+        <v>40627.76610340536</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>88988.64397565022</v>
+        <v>95878.2593805886</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>212810.3672235032</v>
+        <v>217804.46766677</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>47442.39779490615</v>
+        <v>49089.22246060652</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.003643723617575529</v>
+        <v>0.003643723617852264</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0006430100501603875</v>
+        <v>0.0006430100502092231</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>122297.445624835</v>
+        <v>130624.2700229162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>242835.0199365425</v>
+        <v>248928.1240311041</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>56441.84388175714</v>
+        <v>58442.30025640122</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139386.0907300989</v>
+        <v>148533.145172313</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>271368.9276027269</v>
+        <v>278733.3914394906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63375.97769728961</v>
+        <v>65691.92834506907</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140264.2393741494</v>
+        <v>150110.5288853536</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>296708.4048538858</v>
+        <v>305534.1483639848</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>67945.22222493764</v>
+        <v>70596.73854169021</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>138566.495055358</v>
+        <v>149297.3962171597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>317172.304897239</v>
+        <v>327670.2518292425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71367.86044553295</v>
+        <v>74412.7616671978</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>134574.071088436</v>
+        <v>146329.8382138939</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>331280.1060250977</v>
+        <v>343687.5602442315</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73413.86974628137</v>
+        <v>76909.6168381075</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>128753.7202810358</v>
+        <v>141522.3094104814</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>337928.6644125066</v>
+        <v>352517.0811384537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73940.43911055743</v>
+        <v>77933.59771710089</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>124140.8120772056</v>
+        <v>137779.9219463781</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>336533.9727349532</v>
+        <v>353619.4652644843</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73181.77169383157</v>
+        <v>77712.31526293795</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>118522.7677554012</v>
+        <v>132784.4886784885</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>327108.1145862014</v>
+        <v>347064.8200013569</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70894.15781483176</v>
+        <v>76000.56501680355</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>105012.6719861488</v>
+        <v>119618.1160368055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>310255.7090061978</v>
+        <v>333531.8097906017</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66419.08213680962</v>
+        <v>72149.45645079699</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76548.44472012485</v>
+        <v>91538.36647965718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>287094.2407165692</v>
+        <v>314230.0045570034</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>59169.07228489863</v>
+        <v>65623.28335420434</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01756673888646672</v>
+        <v>0.01756673890951672</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.003100012744670599</v>
+        <v>0.003100012748738246</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>37966.53161310421</v>
+        <v>53698.85255260094</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>259120.802457817</v>
+        <v>290767.478015355</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>49945.70394629955</v>
+        <v>57278.44705757386</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17700.52763954745</v>
+        <v>34373.66461872103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>228056.2289949906</v>
+        <v>264994.0597883589</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42211.94217475197</v>
+        <v>50582.95367845719</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14871.41500279481</v>
+        <v>32302.3816427105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>195692.8057214009</v>
+        <v>238845.8582609989</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36186.40398382574</v>
+        <v>45738.42262073888</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12359.60940745174</v>
+        <v>29960.25691503678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>163757.4360124984</v>
+        <v>214202.4631851863</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30271.66099519044</v>
+        <v>41129.35211474285</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8368.378403642344</v>
+        <v>25399.94397696131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>133788.7169350457</v>
+        <v>192754.9891762262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24539.59339939971</v>
+        <v>36837.80232265654</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3941.331936781172</v>
+        <v>20234.53119396934</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>107024.1062366272</v>
+        <v>175881.1410434168</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19324.53275368767</v>
+        <v>33286.12966320087</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2884.578578944685</v>
+        <v>19269.7548511579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>84304.14396014187</v>
+        <v>164534.637587134</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15197.71060631301</v>
+        <v>31176.60815243336</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5237.515056435292</v>
+        <v>23552.07143406443</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66014.98403915451</v>
+        <v>159171.0575034214</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12231.64918311485</v>
+        <v>30705.90697366976</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8871.415973684752</v>
+        <v>32111.78679785352</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>52094.02617561269</v>
+        <v>159736.1532320502</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10178.77632872016</v>
+        <v>31756.7092341756</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13237.27050830152</v>
+        <v>45602.10229071168</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42108.71960396634</v>
+        <v>165728.3568784345</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8901.758352602727</v>
+        <v>34313.08088012962</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06318921013100781</v>
+        <v>0.06318921080656328</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0111510370837806</v>
+        <v>0.01115103720299628</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17463.40034910797</v>
+        <v>63787.50756443412</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35391.81153366798</v>
+        <v>176320.680254586</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8185.991616626608</v>
+        <v>38202.91500306668</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21113.40810428546</v>
+        <v>85836.04807175674</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31193.70885364141</v>
+        <v>190504.696831069</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7850.706384452097</v>
+        <v>43155.81458600476</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23702.57434769543</v>
+        <v>110346.0643884834</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28808.81687615648</v>
+        <v>207215.3413046586</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7717.528232464363</v>
+        <v>48828.08699235295</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21767.48422625879</v>
+        <v>132488.1420603375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27649.85313770216</v>
+        <v>225411.9891113814</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7297.995206302991</v>
+        <v>54499.49098714402</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13220.69601396925</v>
+        <v>145514.4473460819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27270.24797558597</v>
+        <v>244116.7356074188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6281.362925348356</v>
+        <v>59247.69585806339</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4290.807895768192</v>
+        <v>148906.782346498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27353.1865124262</v>
+        <v>262428.3806200589</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5303.789346820698</v>
+        <v>62856.08873615722</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>580.7402687534917</v>
+        <v>147514.4409785569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27688.16026566783</v>
+        <v>279531.9604829946</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4950.672625763666</v>
+        <v>65719.66293906093</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119.6563359475483</v>
+        <v>144287.6311842759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28146.68143968129</v>
+        <v>294713.4612727086</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4980.35657897061</v>
+        <v>68040.21689212957</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>286.8299262176678</v>
+        <v>140064.5571671124</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28659.16037443166</v>
+        <v>307378.8020872993</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5089.368881407551</v>
+        <v>69806.04658952937</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>766.1481316302747</v>
+        <v>135217.8793352324</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29191.89289216777</v>
+        <v>317072.4501219954</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5236.638080563689</v>
+        <v>70978.1706012603</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1921907285485715</v>
+        <v>0.1921907375769433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03391601103014313</v>
+        <v>0.03391601262338521</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1668.781071372675</v>
+        <v>128634.168441255</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29725.51717709425</v>
+        <v>323493.0943328047</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5431.099620881571</v>
+        <v>71379.70202932719</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2436.177765082728</v>
+        <v>116657.5443918737</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30239.07206528247</v>
+        <v>326506.6360266231</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5606.993253392375</v>
+        <v>70580.76749922011</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2081.189906578838</v>
+        <v>95179.28441607693</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30703.59138067212</v>
+        <v>326157.0660175751</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5649.52415483652</v>
+        <v>68132.60534344992</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2861.049280170849</v>
+        <v>71102.18378916592</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31086.24526404024</v>
+        <v>322673.8202730807</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5803.702352235236</v>
+        <v>64842.68151496079</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6547.718045041765</v>
+        <v>55383.56213123793</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31362.30834185989</v>
+        <v>316471.7826481306</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6262.049228731551</v>
+        <v>62001.69076948086</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11583.82487822425</v>
+        <v>48453.40209244713</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31529.32049511309</v>
+        <v>308138.7191934583</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6851.08938756775</v>
+        <v>59761.13237774494</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14051.95771869026</v>
+        <v>44811.13317268887</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31616.69963668347</v>
+        <v>298405.3847843368</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7140.746218354172</v>
+        <v>57638.78858243664</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14177.73605197374</v>
+        <v>41587.48330685329</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31685.3392557023</v>
+        <v>288096.2005965176</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7166.834462663502</v>
+        <v>55461.33746616001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14865.08497635838</v>
+        <v>39662.36153651447</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31815.3844319538</v>
+        <v>278063.0743653888</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7266.155714123171</v>
+        <v>53476.88335938722</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16455.77747846353</v>
+        <v>40993.78561145018</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32085.32424910771</v>
+        <v>269110.3813832212</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7490.535763789466</v>
+        <v>52044.93237086031</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5157598058044383</v>
+        <v>0.5157598800495834</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09101643980382514</v>
+        <v>0.09101645290590957</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17881.77988378819</v>
+        <v>46727.71659170512</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32549.57529000282</v>
+        <v>261923.0949804833</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7730.907129767813</v>
+        <v>51413.69115380417</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18678.79523825625</v>
+        <v>57383.9807883396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33222.69234456879</v>
+        <v>257010.4145825998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7938.249753945842</v>
+        <v>51730.77690935927</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18850.86369402457</v>
+        <v>72652.07696315106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34075.52221874381</v>
+        <v>254673.387762699</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8107.86786081373</v>
+        <v>53014.81554226433</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18162.0917462747</v>
+        <v>91434.01909844634</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35043.51924970211</v>
+        <v>254998.6188453845</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8202.160649860309</v>
+        <v>55159.0917222155</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16398.50322354268</v>
+        <v>112015.5897404101</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36042.86729347993</v>
+        <v>257874.1710606479</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8182.561906694011</v>
+        <v>57953.38329558475</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13424.254796827</v>
+        <v>131800.5135972759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36988.1876438291</v>
+        <v>263020.5476277678</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8018.91109757807</v>
+        <v>61059.89226864983</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9842.551167484971</v>
+        <v>147690.3522606056</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37806.73917142344</v>
+        <v>270029.5995060122</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7765.39429722665</v>
+        <v>64062.32140583415</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7315.106803360361</v>
+        <v>157000.1538974032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38446.70455480358</v>
+        <v>278406.0286908624</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7597.502213312569</v>
+        <v>66574.93719548457</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7583.626981616701</v>
+        <v>159627.0532400294</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38879.67115525655</v>
+        <v>287608.174265567</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7703.743659342555</v>
+        <v>68490.72294281574</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9903.015100632034</v>
+        <v>157846.1491135743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39098.81204539147</v>
+        <v>297086.0702907839</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8000.125372132775</v>
+        <v>69965.41459334594</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/Final Demand/SwFD/SwFD_Avg.xlsx
+++ b/Final Demand/SwFD/SwFD_Avg.xlsx
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.279263995345479E-07</v>
+        <v>8.257978138811554E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.244515031088292</v>
+        <v>1.394778183927361</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2196203693734162</v>
+        <v>0.2461374183307292</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>153764.1054578347</v>
+        <v>165213.4190295711</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>306315.3270643246</v>
+        <v>332647.9521292945</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71140.54655895395</v>
+        <v>77059.6263463638</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>148340.3588384367</v>
+        <v>159224.6546131727</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>314825.6658936404</v>
+        <v>341909.5993061644</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72039.73254497853</v>
+        <v>78028.61640320507</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.838312334195197E-06</v>
+        <v>1.160314289218569E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.757589645490551</v>
+        <v>2.994025828998323</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4866344488859776</v>
+        <v>0.5283587884730975</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.4208140687021E-05</v>
+        <v>0.0001234269347386556</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.739505996371094</v>
+        <v>6.04400206078889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.012864466930793</v>
+        <v>1.066602313066605</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0008017465720112962</v>
+        <v>0.001047996513612405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.41105839381044</v>
+        <v>11.66130600297101</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.013805270095464</v>
+        <v>2.057993973993129</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.005664828107931957</v>
+        <v>0.007385987362218924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.92164299128898</v>
+        <v>21.77063490393189</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.869154659102205</v>
+        <v>3.842697413015156</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03423242218225859</v>
+        <v>0.04451108021765363</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40.92075884473996</v>
+        <v>39.59767643000765</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.225113986830573</v>
+        <v>6.992770927934031</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1810617397460165</v>
+        <v>0.2347398463384347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>74.15216032663805</v>
+        <v>70.18569944069024</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.10579332284255</v>
+        <v>12.41179387115288</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8537106961660277</v>
+        <v>1.103397704523632</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>129.9426995896966</v>
+        <v>120.8216079040089</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.02592137749432</v>
+        <v>21.44405996330158</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.64147197621651</v>
+        <v>4.691376923751824</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>219.5674650403087</v>
+        <v>201.3523517782913</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.15180771035305</v>
+        <v>36.05403206351404</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.21793821425436</v>
+        <v>18.2561037009217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>357.4913696843667</v>
+        <v>324.3976758073716</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64.66648320993612</v>
+        <v>59.2751046386582</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>51.26829405944137</v>
+        <v>65.60070011996524</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>561.4520236547402</v>
+        <v>505.4266284591262</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>104.776245997964</v>
+        <v>96.48190111395959</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>171.5623437052445</v>
+        <v>218.7097729904114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>852.3243084975874</v>
+        <v>762.6426668839548</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>169.4726547217256</v>
+        <v>158.8850859261685</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>531.1439317251454</v>
+        <v>674.208511452034</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1253.698942615976</v>
+        <v>1116.622032754418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>280.2569822873126</v>
+        <v>271.9630037846658</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1489.651243893192</v>
+        <v>1879.67697204924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1791.087766979013</v>
+        <v>1589.637925516023</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>481.5911166968471</v>
+        <v>489.3773366913052</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3568.346090095654</v>
+        <v>4454.048394396102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2490.624419377794</v>
+        <v>2204.558980764011</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>836.0048552603042</v>
+        <v>883.9340861788367</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6519.983392177449</v>
+        <v>7935.776585576616</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3377.140317053805</v>
+        <v>2983.224317375401</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1320.40853743444</v>
+        <v>1408.204304078028</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8362.096170395709</v>
+        <v>9582.544475141498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4471.649853601762</v>
+        <v>3944.365378695339</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1718.236476758004</v>
+        <v>1760.791642497906</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8758.454989542868</v>
+        <v>9088.649353342615</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5788.563564835681</v>
+        <v>5101.430237081592</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1994.672882828707</v>
+        <v>1910.102322928284</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9244.232876556378</v>
+        <v>8858.861516433231</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7332.70806745855</v>
+        <v>6460.366105248183</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2321.144292306139</v>
+        <v>2124.382553078862</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10076.89112686025</v>
+        <v>9320.298648938806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9096.563716341832</v>
+        <v>8017.726998261986</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2724.930519593815</v>
+        <v>2450.48173846427</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.793559118396173E-06</v>
+        <v>1.292728844874079E-05</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.728275138540502E-06</v>
+        <v>2.28128619683661E-06</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11206.57966854497</v>
+        <v>10034.44703242833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11059.11257840298</v>
+        <v>9760.474456195359</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3196.783620798334</v>
+        <v>2837.375227899061</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12335.47872421885</v>
+        <v>10629.5178266863</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13187.06618908964</v>
+        <v>11668.07734771776</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3697.738074621835</v>
+        <v>3240.130009425141</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13337.87387648073</v>
+        <v>11285.12419380009</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15439.0852659564</v>
+        <v>13717.27538374987</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4206.530444973826</v>
+        <v>3674.598344155868</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14436.43417917464</v>
+        <v>12384.16197864624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17774.05591386181</v>
+        <v>15890.33814760912</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4740.646344576718</v>
+        <v>4180.195317793676</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14412.5535298381</v>
+        <v>12627.17601977393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20164.40658942367</v>
+        <v>18187.61729619554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5159.819528899913</v>
+        <v>4612.599080610697</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14268.51740260479</v>
+        <v>12700.74134771679</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22614.79915039135</v>
+        <v>20644.64939478749</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5576.237731404236</v>
+        <v>5054.3669056892</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15098.14726382098</v>
+        <v>13743.91300684143</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25185.34024441148</v>
+        <v>23353.07462370532</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6122.043726039651</v>
+        <v>5648.2322611526</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16193.61978015332</v>
+        <v>15162.22663131335</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28016.63837248256</v>
+        <v>26483.0558944803</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6743.403740651213</v>
+        <v>6358.172299890818</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17536.5329561924</v>
+        <v>17178.08763185305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31351.88263066413</v>
+        <v>30302.94953224093</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7481.188831916355</v>
+        <v>7256.255732758216</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18537.96714859268</v>
+        <v>19136.91643724701</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35549.0622695515</v>
+        <v>35189.98456843999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8333.138057542263</v>
+        <v>8336.321325366529</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0004119991057797085</v>
+        <v>0.0005432529875638328</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.270572454936034E-05</v>
+        <v>9.586817427597052E-05</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17729.40237676258</v>
+        <v>18649.18299468008</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41075.41155160805</v>
+        <v>41624.47337844755</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9218.535635937133</v>
+        <v>9417.626745932323</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16341.13621937344</v>
+        <v>17019.77791019375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>48479.12210846642</v>
+        <v>50162.72060971165</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10370.82099776433</v>
+        <v>10743.3312479445</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15339.25632401526</v>
+        <v>15873.59658607532</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>58338.00290778849</v>
+        <v>61387.84991335392</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11999.30350338921</v>
+        <v>12596.88293871788</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15205.35417285684</v>
+        <v>15897.35896795356</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>71189.80528924117</v>
+        <v>75842.14047896084</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14252.39061273254</v>
+        <v>15150.28036200754</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16840.86768661898</v>
+        <v>17877.26121056818</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>87453.45607906718</v>
+        <v>93948.65797500484</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17304.17035821789</v>
+        <v>18565.53729349536</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21861.61082790679</v>
+        <v>23683.96087068871</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>107352.2579489066</v>
+        <v>115932.0252369843</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21373.583978398</v>
+        <v>23090.14389673389</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>33081.47650842235</v>
+        <v>36472.77280856629</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>130848.8297063447</v>
+        <v>141747.7887485056</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26766.68956022541</v>
+        <v>29066.84597356391</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49885.5991809671</v>
+        <v>55061.18349844917</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>157598.0381127365</v>
+        <v>171027.5611840779</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>33354.2628439237</v>
+        <v>36299.24360420745</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>68775.11421579373</v>
+        <v>75539.41965564401</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>186921.1582278713</v>
+        <v>203045.2146698358</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40627.76610340536</v>
+        <v>44224.77732177461</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>95878.2593805886</v>
+        <v>104716.3079119562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>217804.46766677</v>
+        <v>236709.8933380485</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>49089.22246060652</v>
+        <v>53407.47944202983</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.003643723617852264</v>
+        <v>0.00477943798156821</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0006430100502092231</v>
+        <v>0.000843430232041449</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130624.2700229162</v>
+        <v>142024.3536006025</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>248928.1240311041</v>
+        <v>270593.9819916405</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>58442.30025640122</v>
+        <v>63532.36290839565</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>148533.145172313</v>
+        <v>160945.6333209693</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>278733.3914394906</v>
+        <v>303005.4264218495</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>65691.92834506907</v>
+        <v>71354.39398592428</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150110.5288853536</v>
+        <v>162126.4632031245</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>305534.1483639848</v>
+        <v>332110.3563744471</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70596.73854169021</v>
+        <v>76621.76141544568</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>149297.3962171597</v>
+        <v>160741.9506424635</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>327670.2518292425</v>
+        <v>356102.2762675007</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74412.7616671978</v>
+        <v>80701.79490290456</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>146329.8382138939</v>
+        <v>157062.0684284323</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>343687.5602442315</v>
+        <v>373400.2082562943</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>76909.6168381075</v>
+        <v>83345.49533466206</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141522.3094104814</v>
+        <v>151549.9717182029</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>352517.0811384537</v>
+        <v>382845.1365078504</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>77933.59771710089</v>
+        <v>84399.79218902883</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>137779.9219463781</v>
+        <v>147446.6348186848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>353619.4652644843</v>
+        <v>383857.7621980701</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>77712.31526293795</v>
+        <v>84122.56451807538</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132784.4886784885</v>
+        <v>142155.8560410232</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>347064.8200013569</v>
+        <v>376524.9977621141</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>76000.56501680355</v>
+        <v>82240.68295604234</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>119618.1160368055</v>
+        <v>127993.1189963145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>333531.8097906017</v>
+        <v>361598.0237049217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72149.45645079699</v>
+        <v>78032.87361418453</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91538.36647965718</v>
+        <v>97558.29508179569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>314230.0045570034</v>
+        <v>340406.5149681641</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>65623.28335420434</v>
+        <v>70911.54850020233</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01756673890951672</v>
+        <v>0.02270446354558987</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.003100012748738246</v>
+        <v>0.004006670037457035</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>53698.85255260094</v>
+        <v>56560.63898964307</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>290767.478015355</v>
+        <v>314713.2263316073</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>57278.44705757386</v>
+        <v>61822.14361945967</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>34373.66461872103</v>
+        <v>35937.01525952848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>264994.0597883589</v>
+        <v>286542.1995293181</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>50582.95367845719</v>
+        <v>54559.27220067695</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32302.3816427105</v>
+        <v>34170.07217831388</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>238845.8582609989</v>
+        <v>258008.5821078046</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>45738.42262073888</v>
+        <v>49327.60094079779</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29960.25691503678</v>
+        <v>31890.28464075486</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>214202.4631851863</v>
+        <v>231162.5317377906</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41129.35211474285</v>
+        <v>44336.75291381163</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25399.94397696131</v>
+        <v>26973.42331924049</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>192754.9891762262</v>
+        <v>207845.220048155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36837.80232265654</v>
+        <v>39675.61527926323</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20234.53119396934</v>
+        <v>21385.48116684114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>175881.1410434168</v>
+        <v>189552.780227496</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>33286.12966320087</v>
+        <v>35826.65520247511</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19269.7548511579</v>
+        <v>20494.95889091945</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>164534.637587134</v>
+        <v>177316.2025742694</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31176.60815243336</v>
+        <v>33568.3122264765</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23552.07143406443</v>
+        <v>25425.43835239311</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>159171.0575034214</v>
+        <v>171621.234447714</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30705.90697366976</v>
+        <v>33111.14890247688</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32111.78679785352</v>
+        <v>35075.9987927371</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>159736.1532320502</v>
+        <v>172396.6544728997</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31756.7092341756</v>
+        <v>34320.27222382237</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>45602.10229071168</v>
+        <v>50067.81987209117</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>165728.3568784345</v>
+        <v>179083.6126915581</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>34313.08088012962</v>
+        <v>37166.08157187987</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.654242495879434E-11</v>
+        <v>2.183564692863199E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06318921080656328</v>
+        <v>0.07935550731154535</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01115103720299628</v>
+        <v>0.01400391305740478</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>63787.50756443412</v>
+        <v>69977.864386293</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>176320.680254586</v>
+        <v>190769.7352705286</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38202.91500306668</v>
+        <v>41440.5656658252</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>85836.04807175674</v>
+        <v>93824.03136171194</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>190504.696831069</v>
+        <v>206347.1034881836</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43155.81458600476</v>
+        <v>46839.08710673242</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>110346.0643884834</v>
+        <v>120138.2252830099</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>207215.3413046586</v>
+        <v>224648.9389459496</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>48828.08699235295</v>
+        <v>52992.62210033862</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132488.1420603375</v>
+        <v>143752.329802664</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>225411.9891113814</v>
+        <v>244538.1654459455</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>54499.49098714402</v>
+        <v>59126.27499141057</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>145514.4473460819</v>
+        <v>157406.0890329814</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>244116.7356074188</v>
+        <v>264948.8991959163</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>59247.69585806339</v>
+        <v>64245.25354150604</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>148906.782346498</v>
+        <v>160601.1813625678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>262428.3806200589</v>
+        <v>284901.1815856399</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>62856.08873615722</v>
+        <v>68121.2548103002</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147514.4409785569</v>
+        <v>158655.5619469911</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>279531.9604829946</v>
+        <v>303510.7460954058</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>65719.66293906093</v>
+        <v>71189.11567107716</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>144287.6311842759</v>
+        <v>154822.5822254623</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>294713.4612727086</v>
+        <v>320004.4451440364</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68040.21689212957</v>
+        <v>73673.8818086395</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140064.5571671124</v>
+        <v>150065.4020998092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>307378.8020872993</v>
+        <v>333740.4119827866</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69806.04658952937</v>
+        <v>75569.30038713723</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>135217.8793352324</v>
+        <v>144804.5666383724</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>317072.4501219954</v>
+        <v>344227.9269875623</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70978.1706012603</v>
+        <v>76835.50105566348</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.882627203614339E-10</v>
+        <v>1.302970202359701E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1921907375769433</v>
+        <v>0.2321723958165157</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03391601262338521</v>
+        <v>0.04097159940651254</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>128634.168441255</v>
+        <v>137782.1488268413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>323493.0943328047</v>
+        <v>351144.1849721106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71379.70202932719</v>
+        <v>77275.74852485811</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>116657.5443918737</v>
+        <v>124948.1307847561</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>326506.6360266231</v>
+        <v>354348.2336232822</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70580.76749922011</v>
+        <v>76415.16687038873</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>95179.28441607693</v>
+        <v>101790.8852203019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>326157.0660175751</v>
+        <v>353892.6832362449</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68132.60534344992</v>
+        <v>73761.74834067808</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>71102.18378916592</v>
+        <v>75857.42306116287</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>322673.8202730807</v>
+        <v>350031.62679466</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64842.68151496079</v>
+        <v>70198.88964376203</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>55383.56213123793</v>
+        <v>59090.79508201474</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>316471.7826481306</v>
+        <v>343220.568552657</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>62001.69076948086</v>
+        <v>67133.97952494111</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>48453.40209244713</v>
+        <v>51874.38777799335</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>308138.7191934583</v>
+        <v>334102.6567019842</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>59761.13237774494</v>
+        <v>64723.11322339517</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>44811.13317268887</v>
+        <v>48126.67415840738</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>298405.3847843368</v>
+        <v>323476.0227418138</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>57638.78858243664</v>
+        <v>62431.41225308432</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41587.48330685329</v>
+        <v>44737.27570517507</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>288096.2005965176</v>
+        <v>312239.9390021763</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>55461.33746616001</v>
+        <v>60071.97411795254</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>39662.36153651447</v>
+        <v>42760.41276352453</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>278063.0743653888</v>
+        <v>301322.612802617</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>53476.88335938722</v>
+        <v>57925.73570359855</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>40993.78561145018</v>
+        <v>44396.07132236432</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>269110.3813832212</v>
+        <v>291599.3833514216</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>52044.93237086031</v>
+        <v>56391.61152267044</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.136855360528863E-08</v>
+        <v>4.131234810897887E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5157598800495834</v>
+        <v>0.5988296951118421</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09101645290590957</v>
+        <v>0.1056758331394095</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46727.71659170512</v>
+        <v>50883.01924622148</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>261923.0949804833</v>
+        <v>283814.4203798812</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>51413.69115380417</v>
+        <v>55738.56651923242</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>57383.9807883396</v>
+        <v>62726.86178511579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>257010.4145825998</v>
+        <v>278519.4083354232</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>51730.77690935927</v>
+        <v>56120.13513335551</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>72652.07696315106</v>
+        <v>79500.98534393603</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>254673.387762699</v>
+        <v>276038.4828416808</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>53014.81554226433</v>
+        <v>57546.11625864244</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91434.01909844634</v>
+        <v>99925.75749230952</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>254998.6188453845</v>
+        <v>276461.6815435184</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>55159.0917222155</v>
+        <v>59890.21751009319</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>112015.5897404101</v>
+        <v>122107.5868116854</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>257874.1710606479</v>
+        <v>279662.6272839432</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>57953.38329558475</v>
+        <v>62919.7379899681</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>131800.5135972759</v>
+        <v>143262.4496283371</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>263020.5476277678</v>
+        <v>285332.6420846023</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>61059.89226864983</v>
+        <v>66270.86915010454</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147690.3522606056</v>
+        <v>160093.183857241</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>270029.5995060122</v>
+        <v>293023.4543822565</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64062.32140583415</v>
+        <v>69498.15290126814</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>157000.1538974032</v>
+        <v>169748.4896859268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>278406.0286908624</v>
+        <v>302192.6599227499</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66574.93719548457</v>
+        <v>72189.05975539218</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>159627.0532400294</v>
+        <v>172172.4134779529</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>287608.174265567</v>
+        <v>312248.3112027072</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68490.72294281574</v>
+        <v>74232.91131763592</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>157846.1491135743</v>
+        <v>169884.7460060763</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>297086.0702907839</v>
+        <v>322590.4415800662</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69965.41459334594</v>
+        <v>75803.8078742816</v>
       </c>
       <c r="F11">
         <v>0</v>
